--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-observation-body-weight.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-observation-body-weight.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="538">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -443,7 +443,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1054,29 +1054,6 @@
   <si>
     <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
-  </si>
-  <si>
-    <t>A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
   </si>
   <si>
     <t>Observation.value[x]:valueQuantity.id</t>
@@ -1612,7 +1589,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -2055,17 +2032,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.96484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.07421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.1171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.96484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2074,28 +2051,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.2265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.16015625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.4921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5981,19 +5958,19 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>329</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>321</v>
@@ -6054,36 +6031,36 @@
         <v>94</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>334</v>
+        <v>106</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>83</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6198,10 +6175,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6230,7 +6207,7 @@
         <v>184</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>186</v>
@@ -6318,10 +6295,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6344,19 +6321,19 @@
         <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6405,7 +6382,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6426,10 +6403,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6440,10 +6417,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6469,20 +6446,20 @@
         <v>158</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q37" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>83</v>
@@ -6506,10 +6483,10 @@
         <v>225</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>83</v>
@@ -6527,7 +6504,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6548,10 +6525,10 @@
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -6562,10 +6539,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6591,14 +6568,14 @@
         <v>108</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6608,7 +6585,7 @@
         <v>83</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>83</v>
@@ -6647,7 +6624,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6668,10 +6645,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6682,10 +6659,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6711,14 +6688,14 @@
         <v>130</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
@@ -6728,7 +6705,7 @@
         <v>83</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>83</v>
@@ -6767,7 +6744,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6776,7 +6753,7 @@
         <v>94</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>106</v>
@@ -6788,10 +6765,10 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6802,10 +6779,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6831,16 +6808,16 @@
         <v>158</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>83</v>
@@ -6850,7 +6827,7 @@
         <v>83</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>83</v>
@@ -6889,7 +6866,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6910,10 +6887,10 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -6924,10 +6901,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6953,16 +6930,16 @@
         <v>234</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -6990,10 +6967,10 @@
         <v>142</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>83</v>
@@ -7011,7 +6988,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7020,7 +6997,7 @@
         <v>94</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>106</v>
@@ -7035,7 +7012,7 @@
         <v>181</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -7046,14 +7023,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7075,16 +7052,16 @@
         <v>234</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -7112,10 +7089,10 @@
         <v>142</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>83</v>
@@ -7133,7 +7110,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7151,27 +7128,27 @@
         <v>83</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7194,19 +7171,19 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -7255,7 +7232,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7276,10 +7253,10 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7290,10 +7267,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7319,13 +7296,13 @@
         <v>234</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7354,10 +7331,10 @@
         <v>148</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>83</v>
@@ -7375,7 +7352,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7393,27 +7370,27 @@
         <v>83</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7439,16 +7416,16 @@
         <v>234</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
@@ -7476,10 +7453,10 @@
         <v>148</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>83</v>
@@ -7497,7 +7474,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7518,10 +7495,10 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7532,10 +7509,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7558,16 +7535,16 @@
         <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7617,7 +7594,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7635,27 +7612,27 @@
         <v>83</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7678,16 +7655,16 @@
         <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7737,7 +7714,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7755,27 +7732,27 @@
         <v>83</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7798,19 +7775,19 @@
         <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -7859,7 +7836,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7871,7 +7848,7 @@
         <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>83</v>
@@ -7880,10 +7857,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -7894,10 +7871,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8012,10 +7989,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8044,7 +8021,7 @@
         <v>184</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>186</v>
@@ -8132,10 +8109,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8217,7 +8194,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8252,10 +8229,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8281,10 +8258,10 @@
         <v>329</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8335,7 +8312,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8344,7 +8321,7 @@
         <v>94</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>106</v>
@@ -8356,10 +8333,10 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8370,10 +8347,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8399,10 +8376,10 @@
         <v>329</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8453,7 +8430,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8462,7 +8439,7 @@
         <v>94</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>106</v>
@@ -8474,10 +8451,10 @@
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8488,10 +8465,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8517,16 +8494,16 @@
         <v>234</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8554,10 +8531,10 @@
         <v>162</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -8575,7 +8552,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8593,13 +8570,13 @@
         <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -8610,10 +8587,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8639,16 +8616,16 @@
         <v>234</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8676,10 +8653,10 @@
         <v>148</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>83</v>
@@ -8697,7 +8674,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8715,13 +8692,13 @@
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -8732,10 +8709,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8758,17 +8735,17 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -8817,7 +8794,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8841,7 +8818,7 @@
         <v>83</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8852,10 +8829,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8881,10 +8858,10 @@
         <v>108</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8935,7 +8912,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8956,10 +8933,10 @@
         <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
@@ -8970,10 +8947,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8996,16 +8973,16 @@
         <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9055,7 +9032,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9076,10 +9053,10 @@
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
@@ -9090,10 +9067,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9116,16 +9093,16 @@
         <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9175,7 +9152,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9196,10 +9173,10 @@
         <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
@@ -9210,10 +9187,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9236,19 +9213,19 @@
         <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9297,7 +9274,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9318,10 +9295,10 @@
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
@@ -9332,10 +9309,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9450,10 +9427,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9482,7 +9459,7 @@
         <v>184</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>186</v>
@@ -9570,10 +9547,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9655,7 +9632,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9690,10 +9667,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9719,13 +9696,13 @@
         <v>234</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>248</v>
@@ -9777,7 +9754,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>94</v>
@@ -9795,7 +9772,7 @@
         <v>83</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>254</v>
@@ -9812,10 +9789,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9838,16 +9815,16 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>319</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>321</v>
@@ -9899,7 +9876,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -9917,7 +9894,7 @@
         <v>83</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>324</v>
@@ -9934,10 +9911,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9963,16 +9940,16 @@
         <v>234</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>83</v>
@@ -10000,10 +9977,10 @@
         <v>142</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>83</v>
@@ -10021,7 +9998,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10030,7 +10007,7 @@
         <v>94</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>106</v>
@@ -10045,7 +10022,7 @@
         <v>181</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -10056,14 +10033,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10085,16 +10062,16 @@
         <v>234</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -10122,10 +10099,10 @@
         <v>142</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>83</v>
@@ -10143,7 +10120,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10161,27 +10138,27 @@
         <v>83</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10207,16 +10184,16 @@
         <v>84</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>83</v>
@@ -10265,7 +10242,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10286,10 +10263,10 @@
         <v>83</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>

--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-observation-body-weight.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-observation-body-weight.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="539">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -436,7 +436,7 @@
     <t>Observation.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -468,7 +468,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -486,7 +486,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -530,7 +530,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -616,7 +616,7 @@
     <t>An Extension</t>
   </si>
   <si>
-    <t>All modifiers SHALL be documented in the profile, in order to be usable.</t>
+    <t>...All modifiers SHALL be documented in the profile, in order to be usable.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -657,7 +657,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -686,7 +686,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -769,7 +769,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -808,7 +808,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -863,7 +863,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -886,7 +886,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -986,7 +986,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1233,7 +1233,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1265,7 +1265,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1321,7 +1321,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1354,7 +1354,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1366,7 +1366,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1394,7 +1394,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1463,6 +1463,10 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+</t>
+  </si>
+  <si>
     <t>Low Range, if relevant</t>
   </si>
   <si>
@@ -1509,7 +1513,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1542,7 +1546,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1579,7 +1583,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1601,7 +1605,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -2032,17 +2036,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.1171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.96484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.6796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.40234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2051,28 +2055,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.4921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.7421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5931,7 +5935,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>327</v>
       </c>
@@ -6293,7 +6297,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>335</v>
       </c>
@@ -8255,13 +8259,13 @@
         <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>329</v>
+        <v>462</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8321,7 +8325,7 @@
         <v>94</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>106</v>
@@ -8333,10 +8337,10 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8347,10 +8351,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8373,13 +8377,13 @@
         <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>329</v>
+        <v>462</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8430,7 +8434,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8439,7 +8443,7 @@
         <v>94</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>106</v>
@@ -8451,10 +8455,10 @@
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8465,10 +8469,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8494,16 +8498,16 @@
         <v>234</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8531,10 +8535,10 @@
         <v>162</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -8552,7 +8556,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8570,10 +8574,10 @@
         <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>401</v>
@@ -8587,10 +8591,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8616,16 +8620,16 @@
         <v>234</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8653,10 +8657,10 @@
         <v>148</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>83</v>
@@ -8674,7 +8678,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8692,10 +8696,10 @@
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>401</v>
@@ -8709,10 +8713,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8735,17 +8739,17 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -8794,7 +8798,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8818,7 +8822,7 @@
         <v>83</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8829,10 +8833,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8858,10 +8862,10 @@
         <v>108</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8912,7 +8916,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8933,10 +8937,10 @@
         <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
@@ -8947,10 +8951,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8973,16 +8977,16 @@
         <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9032,7 +9036,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9053,10 +9057,10 @@
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
@@ -9067,10 +9071,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9093,16 +9097,16 @@
         <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9152,7 +9156,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9173,10 +9177,10 @@
         <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
@@ -9187,10 +9191,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9216,16 +9220,16 @@
         <v>449</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9274,7 +9278,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9295,10 +9299,10 @@
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
@@ -9309,10 +9313,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9427,10 +9431,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9547,10 +9551,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9667,10 +9671,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9696,13 +9700,13 @@
         <v>234</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>248</v>
@@ -9754,7 +9758,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>94</v>
@@ -9772,7 +9776,7 @@
         <v>83</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>254</v>
@@ -9789,10 +9793,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9815,16 +9819,16 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>319</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>321</v>
@@ -9876,7 +9880,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -9894,7 +9898,7 @@
         <v>83</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>324</v>
@@ -9911,10 +9915,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9940,13 +9944,13 @@
         <v>234</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>386</v>
@@ -9998,7 +10002,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10033,10 +10037,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10120,7 +10124,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10155,10 +10159,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10184,10 +10188,10 @@
         <v>84</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>452</v>
@@ -10242,7 +10246,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10277,12 +10281,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP68">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
